--- a/artfynd/A 13663-2023.xlsx
+++ b/artfynd/A 13663-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111396053</v>
+        <v>111396060</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>90</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -728,14 +728,14 @@
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>S om järnvägen - 2, Vg</t>
+          <t>S om järnvägen - 3, Vg</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>432083.280685614</v>
+        <v>432076.641898193</v>
       </c>
       <c r="R2" t="n">
-        <v>6419676.539718015</v>
+        <v>6419661.774153749</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111396060</v>
+        <v>111396045</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -840,10 +840,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>blomning</t>
@@ -853,14 +857,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>S om järnvägen - 3, Vg</t>
+          <t>S om järnvägen, Vg</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>432076.641898193</v>
+        <v>431889.3909100805</v>
       </c>
       <c r="R3" t="n">
-        <v>6419661.774153749</v>
+        <v>6419670.266848063</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -930,7 +934,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111396045</v>
+        <v>111396053</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -965,14 +969,10 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>blomning</t>
@@ -982,14 +982,14 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>S om järnvägen, Vg</t>
+          <t>S om järnvägen - 2, Vg</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>431889.3909100805</v>
+        <v>432083.280685614</v>
       </c>
       <c r="R4" t="n">
-        <v>6419670.266848063</v>
+        <v>6419676.539718015</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111482955</v>
+        <v>111482980</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1111,14 +1111,14 @@
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>S om järnvägen - 5, Vg</t>
+          <t>S om järnvägen - 6, Vg</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>432064.1298546481</v>
+        <v>432048.2263952638</v>
       </c>
       <c r="R5" t="n">
-        <v>6419677.395781181</v>
+        <v>6419681.385014677</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111482936</v>
+        <v>111482955</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1240,14 +1240,14 @@
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>S om järnvägen - 4, Vg</t>
+          <t>S om järnvägen - 5, Vg</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>432073.5656663703</v>
+        <v>432064.1298546481</v>
       </c>
       <c r="R6" t="n">
-        <v>6419668.734013095</v>
+        <v>6419677.395781181</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111482980</v>
+        <v>111482936</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1369,14 +1369,14 @@
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>S om järnvägen - 6, Vg</t>
+          <t>S om järnvägen - 4, Vg</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>432048.2263952638</v>
+        <v>432073.5656663703</v>
       </c>
       <c r="R7" t="n">
-        <v>6419681.385014677</v>
+        <v>6419668.734013095</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111491187</v>
+        <v>111483462</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1498,14 +1498,14 @@
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>S om järnvägen - 18, Vg</t>
+          <t>S om järnvägen - 16, Vg</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>431829.514510141</v>
+        <v>431654.0242198514</v>
       </c>
       <c r="R8" t="n">
-        <v>6419749.394753682</v>
+        <v>6419791.70470859</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1575,10 +1575,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111483140</v>
+        <v>111490843</v>
       </c>
       <c r="B9" t="n">
-        <v>73683</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1587,41 +1587,54 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>306</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>S om järnvägen - 9, Vg</t>
+          <t>S om järnvägen - 17, Vg</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>431942.9372677525</v>
+        <v>431803.2980747336</v>
       </c>
       <c r="R9" t="n">
-        <v>6419625.784949708</v>
+        <v>6419679.170503675</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1675,26 +1688,6 @@
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1711,10 +1704,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111483107</v>
+        <v>111483105</v>
       </c>
       <c r="B10" t="n">
-        <v>73681</v>
+        <v>73689</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1723,25 +1716,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6439</v>
+        <v>308</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1847,7 +1840,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111490843</v>
+        <v>111491187</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1882,7 +1875,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1892,21 +1885,21 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>S om järnvägen - 17, Vg</t>
+          <t>S om järnvägen - 18, Vg</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>431803.2980747336</v>
+        <v>431829.514510141</v>
       </c>
       <c r="R11" t="n">
-        <v>6419679.170503675</v>
+        <v>6419749.394753682</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1976,10 +1969,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111483197</v>
+        <v>111483037</v>
       </c>
       <c r="B12" t="n">
-        <v>73689</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1988,41 +1981,54 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>308</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>S om järnvägen - 11, Vg</t>
+          <t>S om järnvägen - 7, Vg</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>431937.082796899</v>
+        <v>432060.6482816387</v>
       </c>
       <c r="R12" t="n">
-        <v>6419625.884406033</v>
+        <v>6419660.45125766</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2076,16 +2082,6 @@
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -2102,10 +2098,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111491635</v>
+        <v>111483140</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>73683</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2114,54 +2110,41 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>306</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+          <t>(Ach.) Müll.Arg.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>S om järnvägen - 21, Vg</t>
+          <t>S om järnvägen - 9, Vg</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>431859.6228004749</v>
+        <v>431942.9372677525</v>
       </c>
       <c r="R13" t="n">
-        <v>6419672.898494411</v>
+        <v>6419625.784949708</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2215,6 +2198,26 @@
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2231,7 +2234,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111483037</v>
+        <v>111491635</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2266,7 +2269,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2283,14 +2286,14 @@
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>S om järnvägen - 7, Vg</t>
+          <t>S om järnvägen - 21, Vg</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>432060.6482816387</v>
+        <v>431859.6228004749</v>
       </c>
       <c r="R14" t="n">
-        <v>6419660.45125766</v>
+        <v>6419672.898494411</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2360,10 +2363,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111483462</v>
+        <v>111483381</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>73689</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2372,54 +2375,41 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>308</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>S om järnvägen - 16, Vg</t>
+          <t>S om järnvägen - 14, Vg</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>431654.0242198514</v>
+        <v>431754.10213514</v>
       </c>
       <c r="R15" t="n">
-        <v>6419791.70470859</v>
+        <v>6419728.893211351</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2473,6 +2463,26 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2489,7 +2499,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111483105</v>
+        <v>111483197</v>
       </c>
       <c r="B16" t="n">
         <v>73689</v>
@@ -2528,14 +2538,14 @@
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>S om järnvägen - 8, Vg</t>
+          <t>S om järnvägen - 11, Vg</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>431947.1499479365</v>
+        <v>431937.082796899</v>
       </c>
       <c r="R16" t="n">
-        <v>6419623.056550305</v>
+        <v>6419625.884406033</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2590,16 +2600,6 @@
       <c r="AG16" t="b">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
       <c r="AM16" t="inlineStr">
         <is>
           <t>Stående död trädstam/högstubbe</t>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
+          <t>Standing dead tree/snags</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111483381</v>
+        <v>111483300</v>
       </c>
       <c r="B18" t="n">
         <v>73689</v>
@@ -2793,14 +2793,14 @@
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>S om järnvägen - 14, Vg</t>
+          <t>S om järnvägen - 12, Vg</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>431754.10213514</v>
+        <v>431888.091041417</v>
       </c>
       <c r="R18" t="n">
-        <v>6419728.893211351</v>
+        <v>6419625.122914318</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111483300</v>
+        <v>111483107</v>
       </c>
       <c r="B19" t="n">
-        <v>73689</v>
+        <v>73681</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2902,25 +2902,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>308</v>
+        <v>6439</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2929,14 +2929,14 @@
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>S om järnvägen - 12, Vg</t>
+          <t>S om järnvägen - 8, Vg</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>431888.091041417</v>
+        <v>431947.1499479365</v>
       </c>
       <c r="R19" t="n">
-        <v>6419625.122914318</v>
+        <v>6419623.056550305</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111661832</v>
+        <v>111661838</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -3066,10 +3066,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>432076.4609239195</v>
+        <v>431799.2483237319</v>
       </c>
       <c r="R20" t="n">
-        <v>6419682.500295377</v>
+        <v>6419691.460736625</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3138,10 +3138,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111661838</v>
+        <v>111661840</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>89793</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3150,38 +3150,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>4217</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Stråkens strandskogar, Vg</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>431799.2483237319</v>
+        <v>431768.994999051</v>
       </c>
       <c r="R21" t="n">
-        <v>6419691.460736625</v>
+        <v>6419728.1081824</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3232,8 +3235,24 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3250,7 +3269,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111661831</v>
+        <v>111661832</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3290,10 +3309,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>432080.3854477856</v>
+        <v>432076.4609239195</v>
       </c>
       <c r="R22" t="n">
-        <v>6419662.773410858</v>
+        <v>6419682.500295377</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3362,10 +3381,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111661840</v>
+        <v>111661831</v>
       </c>
       <c r="B23" t="n">
-        <v>89793</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3374,41 +3393,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4217</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Stråkens strandskogar, Vg</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>431768.994999051</v>
+        <v>432080.3854477856</v>
       </c>
       <c r="R23" t="n">
-        <v>6419728.1081824</v>
+        <v>6419662.773410858</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3459,24 +3475,8 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">

--- a/artfynd/A 13663-2023.xlsx
+++ b/artfynd/A 13663-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111396060</v>
+        <v>111396045</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,10 +715,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>blomning</t>
@@ -728,14 +732,14 @@
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>S om järnvägen - 3, Vg</t>
+          <t>S om järnvägen, Vg</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>432076.641898193</v>
+        <v>431889.3909100805</v>
       </c>
       <c r="R2" t="n">
-        <v>6419661.774153749</v>
+        <v>6419670.266848063</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -805,7 +809,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111396045</v>
+        <v>111396060</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -840,14 +844,10 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>blomning</t>
@@ -857,14 +857,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>S om järnvägen, Vg</t>
+          <t>S om järnvägen - 3, Vg</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>431889.3909100805</v>
+        <v>432076.641898193</v>
       </c>
       <c r="R3" t="n">
-        <v>6419670.266848063</v>
+        <v>6419661.774153749</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111482980</v>
+        <v>111482955</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1111,14 +1111,14 @@
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>S om järnvägen - 6, Vg</t>
+          <t>S om järnvägen - 5, Vg</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>432048.2263952638</v>
+        <v>432064.1298546481</v>
       </c>
       <c r="R5" t="n">
-        <v>6419681.385014677</v>
+        <v>6419677.395781181</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111482955</v>
+        <v>111482936</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1240,14 +1240,14 @@
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>S om järnvägen - 5, Vg</t>
+          <t>S om järnvägen - 4, Vg</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>432064.1298546481</v>
+        <v>432073.5656663703</v>
       </c>
       <c r="R6" t="n">
-        <v>6419677.395781181</v>
+        <v>6419668.734013095</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111482936</v>
+        <v>111482980</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1369,14 +1369,14 @@
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>S om järnvägen - 4, Vg</t>
+          <t>S om järnvägen - 6, Vg</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>432073.5656663703</v>
+        <v>432048.2263952638</v>
       </c>
       <c r="R7" t="n">
-        <v>6419668.734013095</v>
+        <v>6419681.385014677</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111483462</v>
+        <v>111483107</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>73681</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1458,54 +1458,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>6439</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>(Ach.) Tibell</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>S om järnvägen - 16, Vg</t>
+          <t>S om järnvägen - 8, Vg</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>431654.0242198514</v>
+        <v>431947.1499479365</v>
       </c>
       <c r="R8" t="n">
-        <v>6419791.70470859</v>
+        <v>6419623.056550305</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1559,6 +1546,26 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1575,7 +1582,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111490843</v>
+        <v>111483462</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1610,7 +1617,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1620,21 +1627,21 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>S om järnvägen - 17, Vg</t>
+          <t>S om järnvägen - 16, Vg</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>431803.2980747336</v>
+        <v>431654.0242198514</v>
       </c>
       <c r="R9" t="n">
-        <v>6419679.170503675</v>
+        <v>6419791.70470859</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1704,10 +1711,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111483105</v>
+        <v>111483140</v>
       </c>
       <c r="B10" t="n">
-        <v>73689</v>
+        <v>73683</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1716,25 +1723,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1743,14 +1750,14 @@
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>S om järnvägen - 8, Vg</t>
+          <t>S om järnvägen - 9, Vg</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>431947.1499479365</v>
+        <v>431942.9372677525</v>
       </c>
       <c r="R10" t="n">
-        <v>6419623.056550305</v>
+        <v>6419625.784949708</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1840,7 +1847,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111491187</v>
+        <v>111483437</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1875,7 +1882,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1892,14 +1899,14 @@
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>S om järnvägen - 18, Vg</t>
+          <t>S om järnvägen - 15, Vg</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>431829.514510141</v>
+        <v>431797.479853621</v>
       </c>
       <c r="R11" t="n">
-        <v>6419749.394753682</v>
+        <v>6419681.394993878</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1969,10 +1976,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111483037</v>
+        <v>111483105</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>73689</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1981,54 +1988,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>308</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>S om järnvägen - 7, Vg</t>
+          <t>S om järnvägen - 8, Vg</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>432060.6482816387</v>
+        <v>431947.1499479365</v>
       </c>
       <c r="R12" t="n">
-        <v>6419660.45125766</v>
+        <v>6419623.056550305</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2082,6 +2076,26 @@
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -2098,10 +2112,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111483140</v>
+        <v>111483037</v>
       </c>
       <c r="B13" t="n">
-        <v>73683</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2110,41 +2124,54 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>306</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>S om järnvägen - 9, Vg</t>
+          <t>S om järnvägen - 7, Vg</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>431942.9372677525</v>
+        <v>432060.6482816387</v>
       </c>
       <c r="R13" t="n">
-        <v>6419625.784949708</v>
+        <v>6419660.45125766</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2198,26 +2225,6 @@
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2234,7 +2241,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111491635</v>
+        <v>111490843</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2269,7 +2276,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2279,21 +2286,21 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>S om järnvägen - 21, Vg</t>
+          <t>S om järnvägen - 17, Vg</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>431859.6228004749</v>
+        <v>431803.2980747336</v>
       </c>
       <c r="R14" t="n">
-        <v>6419672.898494411</v>
+        <v>6419679.170503675</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2363,10 +2370,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111483381</v>
+        <v>111491187</v>
       </c>
       <c r="B15" t="n">
-        <v>73689</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2375,41 +2382,54 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>308</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>S om järnvägen - 14, Vg</t>
+          <t>S om järnvägen - 18, Vg</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>431754.10213514</v>
+        <v>431829.514510141</v>
       </c>
       <c r="R15" t="n">
-        <v>6419728.893211351</v>
+        <v>6419749.394753682</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2463,26 +2483,6 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2499,10 +2499,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111483197</v>
+        <v>111491635</v>
       </c>
       <c r="B16" t="n">
-        <v>73689</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2511,41 +2511,54 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>308</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>S om järnvägen - 11, Vg</t>
+          <t>S om järnvägen - 21, Vg</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>431937.082796899</v>
+        <v>431859.6228004749</v>
       </c>
       <c r="R16" t="n">
-        <v>6419625.884406033</v>
+        <v>6419672.898494411</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2599,16 +2612,6 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2625,10 +2628,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111483437</v>
+        <v>111483300</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>73689</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2637,54 +2640,41 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>308</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>S om järnvägen - 15, Vg</t>
+          <t>S om järnvägen - 12, Vg</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>431797.479853621</v>
+        <v>431888.091041417</v>
       </c>
       <c r="R17" t="n">
-        <v>6419681.394993878</v>
+        <v>6419625.122914318</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2738,6 +2728,26 @@
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2754,7 +2764,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111483300</v>
+        <v>111483197</v>
       </c>
       <c r="B18" t="n">
         <v>73689</v>
@@ -2793,14 +2803,14 @@
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>S om järnvägen - 12, Vg</t>
+          <t>S om järnvägen - 11, Vg</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>431888.091041417</v>
+        <v>431937.082796899</v>
       </c>
       <c r="R18" t="n">
-        <v>6419625.122914318</v>
+        <v>6419625.884406033</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2855,16 +2865,6 @@
       <c r="AG18" t="b">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
       <c r="AM18" t="inlineStr">
         <is>
           <t>Stående död trädstam/högstubbe</t>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
+          <t>Standing dead tree/snags</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111483107</v>
+        <v>111483381</v>
       </c>
       <c r="B19" t="n">
-        <v>73681</v>
+        <v>73689</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2902,25 +2902,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6439</v>
+        <v>308</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2929,14 +2929,14 @@
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>S om järnvägen - 8, Vg</t>
+          <t>S om järnvägen - 14, Vg</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>431947.1499479365</v>
+        <v>431754.10213514</v>
       </c>
       <c r="R19" t="n">
-        <v>6419623.056550305</v>
+        <v>6419728.893211351</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111661838</v>
+        <v>111661832</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -3066,10 +3066,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>431799.2483237319</v>
+        <v>432076.4609239195</v>
       </c>
       <c r="R20" t="n">
-        <v>6419691.460736625</v>
+        <v>6419682.500295377</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111661832</v>
+        <v>111661838</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3309,10 +3309,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>432076.4609239195</v>
+        <v>431799.2483237319</v>
       </c>
       <c r="R22" t="n">
-        <v>6419682.500295377</v>
+        <v>6419691.460736625</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>

--- a/artfynd/A 13663-2023.xlsx
+++ b/artfynd/A 13663-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111396045</v>
+        <v>111396060</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,14 +715,10 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>blomning</t>
@@ -732,14 +728,14 @@
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>S om järnvägen, Vg</t>
+          <t>S om järnvägen - 3, Vg</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>431889.3909100805</v>
+        <v>432076.641898193</v>
       </c>
       <c r="R2" t="n">
-        <v>6419670.266848063</v>
+        <v>6419661.774153749</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -809,7 +805,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111396060</v>
+        <v>111396045</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -844,10 +840,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>blomning</t>
@@ -857,14 +857,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>S om järnvägen - 3, Vg</t>
+          <t>S om järnvägen, Vg</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>432076.641898193</v>
+        <v>431889.3909100805</v>
       </c>
       <c r="R3" t="n">
-        <v>6419661.774153749</v>
+        <v>6419670.266848063</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111482955</v>
+        <v>111482936</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1111,14 +1111,14 @@
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>S om järnvägen - 5, Vg</t>
+          <t>S om järnvägen - 4, Vg</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>432064.1298546481</v>
+        <v>432073.5656663703</v>
       </c>
       <c r="R5" t="n">
-        <v>6419677.395781181</v>
+        <v>6419668.734013095</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111482936</v>
+        <v>111482980</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1240,14 +1240,14 @@
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>S om järnvägen - 4, Vg</t>
+          <t>S om järnvägen - 6, Vg</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>432073.5656663703</v>
+        <v>432048.2263952638</v>
       </c>
       <c r="R6" t="n">
-        <v>6419668.734013095</v>
+        <v>6419681.385014677</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111482980</v>
+        <v>111482955</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1369,14 +1369,14 @@
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>S om järnvägen - 6, Vg</t>
+          <t>S om järnvägen - 5, Vg</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>432048.2263952638</v>
+        <v>432064.1298546481</v>
       </c>
       <c r="R7" t="n">
-        <v>6419681.385014677</v>
+        <v>6419677.395781181</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111483107</v>
+        <v>111483037</v>
       </c>
       <c r="B8" t="n">
-        <v>73681</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1458,41 +1458,54 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6439</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>S om järnvägen - 8, Vg</t>
+          <t>S om järnvägen - 7, Vg</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>431947.1499479365</v>
+        <v>432060.6482816387</v>
       </c>
       <c r="R8" t="n">
-        <v>6419623.056550305</v>
+        <v>6419660.45125766</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1546,26 +1559,6 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1582,10 +1575,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111483462</v>
+        <v>111483140</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>73683</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1594,54 +1587,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>306</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
+          <t>(Ach.) Müll.Arg.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>S om järnvägen - 16, Vg</t>
+          <t>S om järnvägen - 9, Vg</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>431654.0242198514</v>
+        <v>431942.9372677525</v>
       </c>
       <c r="R9" t="n">
-        <v>6419791.70470859</v>
+        <v>6419625.784949708</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1695,6 +1675,26 @@
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1711,10 +1711,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111483140</v>
+        <v>111483105</v>
       </c>
       <c r="B10" t="n">
-        <v>73683</v>
+        <v>73689</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1723,25 +1723,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1750,14 +1750,14 @@
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>S om järnvägen - 9, Vg</t>
+          <t>S om järnvägen - 8, Vg</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>431942.9372677525</v>
+        <v>431947.1499479365</v>
       </c>
       <c r="R10" t="n">
-        <v>6419625.784949708</v>
+        <v>6419623.056550305</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111483437</v>
+        <v>111490843</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1892,21 +1892,21 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>S om järnvägen - 15, Vg</t>
+          <t>S om järnvägen - 17, Vg</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>431797.479853621</v>
+        <v>431803.2980747336</v>
       </c>
       <c r="R11" t="n">
-        <v>6419681.394993878</v>
+        <v>6419679.170503675</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1976,10 +1976,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111483105</v>
+        <v>111491187</v>
       </c>
       <c r="B12" t="n">
-        <v>73689</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1988,41 +1988,54 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>308</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>S om järnvägen - 8, Vg</t>
+          <t>S om järnvägen - 18, Vg</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>431947.1499479365</v>
+        <v>431829.514510141</v>
       </c>
       <c r="R12" t="n">
-        <v>6419623.056550305</v>
+        <v>6419749.394753682</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2076,26 +2089,6 @@
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -2112,7 +2105,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111483037</v>
+        <v>111491635</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -2147,7 +2140,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2164,14 +2157,14 @@
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>S om järnvägen - 7, Vg</t>
+          <t>S om järnvägen - 21, Vg</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>432060.6482816387</v>
+        <v>431859.6228004749</v>
       </c>
       <c r="R13" t="n">
-        <v>6419660.45125766</v>
+        <v>6419672.898494411</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2241,10 +2234,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111490843</v>
+        <v>111483197</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>73689</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2253,54 +2246,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>308</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>S om järnvägen - 17, Vg</t>
+          <t>S om järnvägen - 11, Vg</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>431803.2980747336</v>
+        <v>431937.082796899</v>
       </c>
       <c r="R14" t="n">
-        <v>6419679.170503675</v>
+        <v>6419625.884406033</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2354,6 +2334,16 @@
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2370,10 +2360,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111491187</v>
+        <v>111483300</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>73689</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2382,54 +2372,41 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>308</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>S om järnvägen - 18, Vg</t>
+          <t>S om järnvägen - 12, Vg</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>431829.514510141</v>
+        <v>431888.091041417</v>
       </c>
       <c r="R15" t="n">
-        <v>6419749.394753682</v>
+        <v>6419625.122914318</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2483,6 +2460,26 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2499,10 +2496,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111491635</v>
+        <v>111483107</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>73681</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2511,54 +2508,41 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>6439</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>(Ach.) Tibell</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>S om järnvägen - 21, Vg</t>
+          <t>S om järnvägen - 8, Vg</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>431859.6228004749</v>
+        <v>431947.1499479365</v>
       </c>
       <c r="R16" t="n">
-        <v>6419672.898494411</v>
+        <v>6419623.056550305</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2612,6 +2596,26 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2628,7 +2632,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111483300</v>
+        <v>111483381</v>
       </c>
       <c r="B17" t="n">
         <v>73689</v>
@@ -2667,14 +2671,14 @@
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>S om järnvägen - 12, Vg</t>
+          <t>S om järnvägen - 14, Vg</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>431888.091041417</v>
+        <v>431754.10213514</v>
       </c>
       <c r="R17" t="n">
-        <v>6419625.122914318</v>
+        <v>6419728.893211351</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2764,10 +2768,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111483197</v>
+        <v>111483462</v>
       </c>
       <c r="B18" t="n">
-        <v>73689</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2776,41 +2780,54 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>308</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>S om järnvägen - 11, Vg</t>
+          <t>S om järnvägen - 16, Vg</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>431937.082796899</v>
+        <v>431654.0242198514</v>
       </c>
       <c r="R18" t="n">
-        <v>6419625.884406033</v>
+        <v>6419791.70470859</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2864,16 +2881,6 @@
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2890,10 +2897,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111483381</v>
+        <v>111483437</v>
       </c>
       <c r="B19" t="n">
-        <v>73689</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2902,41 +2909,54 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>308</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>S om järnvägen - 14, Vg</t>
+          <t>S om järnvägen - 15, Vg</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>431754.10213514</v>
+        <v>431797.479853621</v>
       </c>
       <c r="R19" t="n">
-        <v>6419728.893211351</v>
+        <v>6419681.394993878</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2990,26 +3010,6 @@
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -3026,7 +3026,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111661832</v>
+        <v>111661838</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -3066,10 +3066,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>432076.4609239195</v>
+        <v>431799.2483237319</v>
       </c>
       <c r="R20" t="n">
-        <v>6419682.500295377</v>
+        <v>6419691.460736625</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3138,10 +3138,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111661840</v>
+        <v>111661831</v>
       </c>
       <c r="B21" t="n">
-        <v>89793</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3150,41 +3150,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4217</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Stråkens strandskogar, Vg</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>431768.994999051</v>
+        <v>432080.3854477856</v>
       </c>
       <c r="R21" t="n">
-        <v>6419728.1081824</v>
+        <v>6419662.773410858</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3235,24 +3232,8 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3269,7 +3250,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111661838</v>
+        <v>111661832</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3309,10 +3290,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>431799.2483237319</v>
+        <v>432076.4609239195</v>
       </c>
       <c r="R22" t="n">
-        <v>6419691.460736625</v>
+        <v>6419682.500295377</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3381,10 +3362,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111661831</v>
+        <v>111661840</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>89793</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3393,38 +3374,41 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>4217</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Stråkens strandskogar, Vg</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>432080.3854477856</v>
+        <v>431768.994999051</v>
       </c>
       <c r="R23" t="n">
-        <v>6419662.773410858</v>
+        <v>6419728.1081824</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3475,8 +3459,24 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">

--- a/artfynd/A 13663-2023.xlsx
+++ b/artfynd/A 13663-2023.xlsx
@@ -1446,10 +1446,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111483037</v>
+        <v>111483300</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>73689</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1458,54 +1458,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>308</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>S om järnvägen - 7, Vg</t>
+          <t>S om järnvägen - 12, Vg</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>432060.6482816387</v>
+        <v>431888.091041417</v>
       </c>
       <c r="R8" t="n">
-        <v>6419660.45125766</v>
+        <v>6419625.122914318</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1559,6 +1546,26 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1575,10 +1582,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111483140</v>
+        <v>111483381</v>
       </c>
       <c r="B9" t="n">
-        <v>73683</v>
+        <v>73689</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1587,25 +1594,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1614,14 +1621,14 @@
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>S om järnvägen - 9, Vg</t>
+          <t>S om järnvägen - 14, Vg</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>431942.9372677525</v>
+        <v>431754.10213514</v>
       </c>
       <c r="R9" t="n">
-        <v>6419625.784949708</v>
+        <v>6419728.893211351</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1711,10 +1718,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111483105</v>
+        <v>111483037</v>
       </c>
       <c r="B10" t="n">
-        <v>73689</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1723,41 +1730,54 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>308</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>S om järnvägen - 8, Vg</t>
+          <t>S om järnvägen - 7, Vg</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>431947.1499479365</v>
+        <v>432060.6482816387</v>
       </c>
       <c r="R10" t="n">
-        <v>6419623.056550305</v>
+        <v>6419660.45125766</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1811,26 +1831,6 @@
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1847,10 +1847,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111490843</v>
+        <v>111483105</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>73689</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1859,54 +1859,41 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>308</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>S om järnvägen - 17, Vg</t>
+          <t>S om järnvägen - 8, Vg</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>431803.2980747336</v>
+        <v>431947.1499479365</v>
       </c>
       <c r="R11" t="n">
-        <v>6419679.170503675</v>
+        <v>6419623.056550305</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1960,6 +1947,26 @@
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -2105,10 +2112,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111491635</v>
+        <v>111483107</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>73681</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2117,54 +2124,41 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>6439</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+          <t>(Ach.) Tibell</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>S om järnvägen - 21, Vg</t>
+          <t>S om järnvägen - 8, Vg</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>431859.6228004749</v>
+        <v>431947.1499479365</v>
       </c>
       <c r="R13" t="n">
-        <v>6419672.898494411</v>
+        <v>6419623.056550305</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2218,6 +2212,26 @@
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2234,10 +2248,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111483197</v>
+        <v>111491635</v>
       </c>
       <c r="B14" t="n">
-        <v>73689</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2246,41 +2260,54 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>308</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>S om järnvägen - 11, Vg</t>
+          <t>S om järnvägen - 21, Vg</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>431937.082796899</v>
+        <v>431859.6228004749</v>
       </c>
       <c r="R14" t="n">
-        <v>6419625.884406033</v>
+        <v>6419672.898494411</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2334,16 +2361,6 @@
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2360,10 +2377,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111483300</v>
+        <v>111483462</v>
       </c>
       <c r="B15" t="n">
-        <v>73689</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2372,41 +2389,54 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>308</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>S om järnvägen - 12, Vg</t>
+          <t>S om järnvägen - 16, Vg</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>431888.091041417</v>
+        <v>431654.0242198514</v>
       </c>
       <c r="R15" t="n">
-        <v>6419625.122914318</v>
+        <v>6419791.70470859</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2460,26 +2490,6 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2496,10 +2506,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111483107</v>
+        <v>111483437</v>
       </c>
       <c r="B16" t="n">
-        <v>73681</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2508,41 +2518,54 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6439</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>S om järnvägen - 8, Vg</t>
+          <t>S om järnvägen - 15, Vg</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>431947.1499479365</v>
+        <v>431797.479853621</v>
       </c>
       <c r="R16" t="n">
-        <v>6419623.056550305</v>
+        <v>6419681.394993878</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2596,26 +2619,6 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2632,7 +2635,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111483381</v>
+        <v>111483197</v>
       </c>
       <c r="B17" t="n">
         <v>73689</v>
@@ -2671,14 +2674,14 @@
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>S om järnvägen - 14, Vg</t>
+          <t>S om järnvägen - 11, Vg</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>431754.10213514</v>
+        <v>431937.082796899</v>
       </c>
       <c r="R17" t="n">
-        <v>6419728.893211351</v>
+        <v>6419625.884406033</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2733,16 +2736,6 @@
       <c r="AG17" t="b">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
       <c r="AM17" t="inlineStr">
         <is>
           <t>Stående död trädstam/högstubbe</t>
@@ -2750,7 +2743,7 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
+          <t>Standing dead tree/snags</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2768,7 +2761,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111483462</v>
+        <v>111490843</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2803,7 +2796,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2813,21 +2806,21 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>S om järnvägen - 16, Vg</t>
+          <t>S om järnvägen - 17, Vg</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>431654.0242198514</v>
+        <v>431803.2980747336</v>
       </c>
       <c r="R18" t="n">
-        <v>6419791.70470859</v>
+        <v>6419679.170503675</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2897,10 +2890,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111483437</v>
+        <v>111483140</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>73683</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2909,54 +2902,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>306</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
+          <t>(Ach.) Müll.Arg.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>S om järnvägen - 15, Vg</t>
+          <t>S om järnvägen - 9, Vg</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>431797.479853621</v>
+        <v>431942.9372677525</v>
       </c>
       <c r="R19" t="n">
-        <v>6419681.394993878</v>
+        <v>6419625.784949708</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3010,6 +2990,26 @@
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -3026,10 +3026,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111661838</v>
+        <v>111661840</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>89793</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3038,38 +3038,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>4217</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Stråkens strandskogar, Vg</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>431799.2483237319</v>
+        <v>431768.994999051</v>
       </c>
       <c r="R20" t="n">
-        <v>6419691.460736625</v>
+        <v>6419728.1081824</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3120,8 +3123,24 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -3138,7 +3157,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111661831</v>
+        <v>111661832</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -3178,10 +3197,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>432080.3854477856</v>
+        <v>432076.4609239195</v>
       </c>
       <c r="R21" t="n">
-        <v>6419662.773410858</v>
+        <v>6419682.500295377</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3250,7 +3269,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111661832</v>
+        <v>111661838</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3290,10 +3309,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>432076.4609239195</v>
+        <v>431799.2483237319</v>
       </c>
       <c r="R22" t="n">
-        <v>6419682.500295377</v>
+        <v>6419691.460736625</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3362,10 +3381,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111661840</v>
+        <v>111661831</v>
       </c>
       <c r="B23" t="n">
-        <v>89793</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3374,41 +3393,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4217</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Stråkens strandskogar, Vg</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>431768.994999051</v>
+        <v>432080.3854477856</v>
       </c>
       <c r="R23" t="n">
-        <v>6419728.1081824</v>
+        <v>6419662.773410858</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3459,24 +3475,8 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">

--- a/artfynd/A 13663-2023.xlsx
+++ b/artfynd/A 13663-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111396060</v>
+        <v>111396053</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>80</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -728,14 +728,14 @@
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>S om järnvägen - 3, Vg</t>
+          <t>S om järnvägen - 2, Vg</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>432076.641898193</v>
+        <v>432083.280685614</v>
       </c>
       <c r="R2" t="n">
-        <v>6419661.774153749</v>
+        <v>6419676.539718015</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111396045</v>
+        <v>111396060</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -840,14 +840,10 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>blomning</t>
@@ -857,14 +853,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>S om järnvägen, Vg</t>
+          <t>S om järnvägen - 3, Vg</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>431889.3909100805</v>
+        <v>432076.641898193</v>
       </c>
       <c r="R3" t="n">
-        <v>6419670.266848063</v>
+        <v>6419661.774153749</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -934,7 +930,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111396053</v>
+        <v>111396045</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -969,10 +965,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>blomning</t>
@@ -982,14 +982,14 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>S om järnvägen - 2, Vg</t>
+          <t>S om järnvägen, Vg</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>432083.280685614</v>
+        <v>431889.3909100805</v>
       </c>
       <c r="R4" t="n">
-        <v>6419676.539718015</v>
+        <v>6419670.266848063</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111482980</v>
+        <v>111482955</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1240,14 +1240,14 @@
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>S om järnvägen - 6, Vg</t>
+          <t>S om järnvägen - 5, Vg</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>432048.2263952638</v>
+        <v>432064.1298546481</v>
       </c>
       <c r="R6" t="n">
-        <v>6419681.385014677</v>
+        <v>6419677.395781181</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111482955</v>
+        <v>111482980</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1369,14 +1369,14 @@
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>S om järnvägen - 5, Vg</t>
+          <t>S om järnvägen - 6, Vg</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>432064.1298546481</v>
+        <v>432048.2263952638</v>
       </c>
       <c r="R7" t="n">
-        <v>6419677.395781181</v>
+        <v>6419681.385014677</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111483300</v>
+        <v>111483105</v>
       </c>
       <c r="B8" t="n">
         <v>73689</v>
@@ -1485,14 +1485,14 @@
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>S om järnvägen - 12, Vg</t>
+          <t>S om järnvägen - 8, Vg</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>431888.091041417</v>
+        <v>431947.1499479365</v>
       </c>
       <c r="R8" t="n">
-        <v>6419625.122914318</v>
+        <v>6419623.056550305</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111483037</v>
+        <v>111491187</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1770,14 +1770,14 @@
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>S om järnvägen - 7, Vg</t>
+          <t>S om järnvägen - 18, Vg</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>432060.6482816387</v>
+        <v>431829.514510141</v>
       </c>
       <c r="R10" t="n">
-        <v>6419660.45125766</v>
+        <v>6419749.394753682</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1847,10 +1847,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111483105</v>
+        <v>111490843</v>
       </c>
       <c r="B11" t="n">
-        <v>73689</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1859,41 +1859,54 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>308</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>S om järnvägen - 8, Vg</t>
+          <t>S om järnvägen - 17, Vg</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>431947.1499479365</v>
+        <v>431803.2980747336</v>
       </c>
       <c r="R11" t="n">
-        <v>6419623.056550305</v>
+        <v>6419679.170503675</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1947,26 +1960,6 @@
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1983,10 +1976,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111491187</v>
+        <v>111483197</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>73689</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1995,54 +1988,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>308</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>S om järnvägen - 18, Vg</t>
+          <t>S om järnvägen - 11, Vg</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>431829.514510141</v>
+        <v>431937.082796899</v>
       </c>
       <c r="R12" t="n">
-        <v>6419749.394753682</v>
+        <v>6419625.884406033</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2096,6 +2076,16 @@
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -2112,10 +2102,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111483107</v>
+        <v>111483037</v>
       </c>
       <c r="B13" t="n">
-        <v>73681</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2124,41 +2114,54 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6439</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>S om järnvägen - 8, Vg</t>
+          <t>S om järnvägen - 7, Vg</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>431947.1499479365</v>
+        <v>432060.6482816387</v>
       </c>
       <c r="R13" t="n">
-        <v>6419623.056550305</v>
+        <v>6419660.45125766</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2212,26 +2215,6 @@
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2248,7 +2231,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111491635</v>
+        <v>111483437</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2283,7 +2266,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2300,14 +2283,14 @@
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>S om järnvägen - 21, Vg</t>
+          <t>S om järnvägen - 15, Vg</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>431859.6228004749</v>
+        <v>431797.479853621</v>
       </c>
       <c r="R14" t="n">
-        <v>6419672.898494411</v>
+        <v>6419681.394993878</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2506,10 +2489,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111483437</v>
+        <v>111483107</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>73681</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2518,54 +2501,41 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>6439</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>(Ach.) Tibell</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>S om järnvägen - 15, Vg</t>
+          <t>S om järnvägen - 8, Vg</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>431797.479853621</v>
+        <v>431947.1499479365</v>
       </c>
       <c r="R16" t="n">
-        <v>6419681.394993878</v>
+        <v>6419623.056550305</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2619,6 +2589,26 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2635,7 +2625,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111483197</v>
+        <v>111483300</v>
       </c>
       <c r="B17" t="n">
         <v>73689</v>
@@ -2674,14 +2664,14 @@
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>S om järnvägen - 11, Vg</t>
+          <t>S om järnvägen - 12, Vg</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>431937.082796899</v>
+        <v>431888.091041417</v>
       </c>
       <c r="R17" t="n">
-        <v>6419625.884406033</v>
+        <v>6419625.122914318</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2736,6 +2726,16 @@
       <c r="AG17" t="b">
         <v>0</v>
       </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
       <c r="AM17" t="inlineStr">
         <is>
           <t>Stående död trädstam/högstubbe</t>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags</t>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111490843</v>
+        <v>111491635</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2806,21 +2806,21 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>S om järnvägen - 17, Vg</t>
+          <t>S om järnvägen - 21, Vg</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>431803.2980747336</v>
+        <v>431859.6228004749</v>
       </c>
       <c r="R18" t="n">
-        <v>6419679.170503675</v>
+        <v>6419672.898494411</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111661838</v>
+        <v>111661831</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3309,10 +3309,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>431799.2483237319</v>
+        <v>432080.3854477856</v>
       </c>
       <c r="R22" t="n">
-        <v>6419691.460736625</v>
+        <v>6419662.773410858</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3381,7 +3381,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111661831</v>
+        <v>111661838</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>432080.3854477856</v>
+        <v>431799.2483237319</v>
       </c>
       <c r="R23" t="n">
-        <v>6419662.773410858</v>
+        <v>6419691.460736625</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>

--- a/artfynd/A 13663-2023.xlsx
+++ b/artfynd/A 13663-2023.xlsx
@@ -1446,7 +1446,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111483105</v>
+        <v>111483381</v>
       </c>
       <c r="B8" t="n">
         <v>73689</v>
@@ -1485,14 +1485,14 @@
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>S om järnvägen - 8, Vg</t>
+          <t>S om järnvägen - 14, Vg</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>431947.1499479365</v>
+        <v>431754.10213514</v>
       </c>
       <c r="R8" t="n">
-        <v>6419623.056550305</v>
+        <v>6419728.893211351</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1582,7 +1582,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111483381</v>
+        <v>111483105</v>
       </c>
       <c r="B9" t="n">
         <v>73689</v>
@@ -1621,14 +1621,14 @@
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>S om järnvägen - 14, Vg</t>
+          <t>S om järnvägen - 8, Vg</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>431754.10213514</v>
+        <v>431947.1499479365</v>
       </c>
       <c r="R9" t="n">
-        <v>6419728.893211351</v>
+        <v>6419623.056550305</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -2625,10 +2625,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111483300</v>
+        <v>111491635</v>
       </c>
       <c r="B17" t="n">
-        <v>73689</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2637,41 +2637,54 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>308</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>S om järnvägen - 12, Vg</t>
+          <t>S om järnvägen - 21, Vg</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>431888.091041417</v>
+        <v>431859.6228004749</v>
       </c>
       <c r="R17" t="n">
-        <v>6419625.122914318</v>
+        <v>6419672.898494411</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2725,26 +2738,6 @@
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2761,10 +2754,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111491635</v>
+        <v>111483300</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>73689</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2773,54 +2766,41 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>308</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>S om järnvägen - 21, Vg</t>
+          <t>S om järnvägen - 12, Vg</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>431859.6228004749</v>
+        <v>431888.091041417</v>
       </c>
       <c r="R18" t="n">
-        <v>6419672.898494411</v>
+        <v>6419625.122914318</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2874,6 +2854,26 @@
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">

--- a/artfynd/A 13663-2023.xlsx
+++ b/artfynd/A 13663-2023.xlsx
@@ -1059,7 +1059,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111482936</v>
+        <v>111482955</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1111,14 +1111,14 @@
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>S om järnvägen - 4, Vg</t>
+          <t>S om järnvägen - 5, Vg</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>432073.5656663703</v>
+        <v>432064.1298546481</v>
       </c>
       <c r="R5" t="n">
-        <v>6419668.734013095</v>
+        <v>6419677.395781181</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111482955</v>
+        <v>111482936</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1240,14 +1240,14 @@
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>S om järnvägen - 5, Vg</t>
+          <t>S om järnvägen - 4, Vg</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>432064.1298546481</v>
+        <v>432073.5656663703</v>
       </c>
       <c r="R6" t="n">
-        <v>6419677.395781181</v>
+        <v>6419668.734013095</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111483381</v>
+        <v>111483037</v>
       </c>
       <c r="B8" t="n">
-        <v>73689</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1458,41 +1458,54 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>308</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>S om järnvägen - 14, Vg</t>
+          <t>S om järnvägen - 7, Vg</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>431754.10213514</v>
+        <v>432060.6482816387</v>
       </c>
       <c r="R8" t="n">
-        <v>6419728.893211351</v>
+        <v>6419660.45125766</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1546,26 +1559,6 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1582,7 +1575,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111483105</v>
+        <v>111483381</v>
       </c>
       <c r="B9" t="n">
         <v>73689</v>
@@ -1621,14 +1614,14 @@
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>S om järnvägen - 8, Vg</t>
+          <t>S om järnvägen - 14, Vg</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>431947.1499479365</v>
+        <v>431754.10213514</v>
       </c>
       <c r="R9" t="n">
-        <v>6419623.056550305</v>
+        <v>6419728.893211351</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1718,10 +1711,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111491187</v>
+        <v>111483105</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>73689</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1730,54 +1723,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>308</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>S om järnvägen - 18, Vg</t>
+          <t>S om järnvägen - 8, Vg</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>431829.514510141</v>
+        <v>431947.1499479365</v>
       </c>
       <c r="R10" t="n">
-        <v>6419749.394753682</v>
+        <v>6419623.056550305</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1831,6 +1811,26 @@
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1847,7 +1847,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111490843</v>
+        <v>111491635</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1892,21 +1892,21 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>S om järnvägen - 17, Vg</t>
+          <t>S om järnvägen - 21, Vg</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>431803.2980747336</v>
+        <v>431859.6228004749</v>
       </c>
       <c r="R11" t="n">
-        <v>6419679.170503675</v>
+        <v>6419672.898494411</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1976,10 +1976,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111483197</v>
+        <v>111490843</v>
       </c>
       <c r="B12" t="n">
-        <v>73689</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1988,41 +1988,54 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>308</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>S om järnvägen - 11, Vg</t>
+          <t>S om järnvägen - 17, Vg</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>431937.082796899</v>
+        <v>431803.2980747336</v>
       </c>
       <c r="R12" t="n">
-        <v>6419625.884406033</v>
+        <v>6419679.170503675</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2076,16 +2089,6 @@
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -2102,7 +2105,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111483037</v>
+        <v>111483437</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -2137,7 +2140,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2154,14 +2157,14 @@
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>S om järnvägen - 7, Vg</t>
+          <t>S om järnvägen - 15, Vg</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>432060.6482816387</v>
+        <v>431797.479853621</v>
       </c>
       <c r="R13" t="n">
-        <v>6419660.45125766</v>
+        <v>6419681.394993878</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2231,10 +2234,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111483437</v>
+        <v>111483197</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>73689</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2243,54 +2246,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>308</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>S om järnvägen - 15, Vg</t>
+          <t>S om järnvägen - 11, Vg</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>431797.479853621</v>
+        <v>431937.082796899</v>
       </c>
       <c r="R14" t="n">
-        <v>6419681.394993878</v>
+        <v>6419625.884406033</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2344,6 +2334,16 @@
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2360,10 +2360,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111483462</v>
+        <v>111483300</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>73689</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2372,54 +2372,41 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>308</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>S om järnvägen - 16, Vg</t>
+          <t>S om järnvägen - 12, Vg</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>431654.0242198514</v>
+        <v>431888.091041417</v>
       </c>
       <c r="R15" t="n">
-        <v>6419791.70470859</v>
+        <v>6419625.122914318</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2473,6 +2460,26 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2489,10 +2496,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111483107</v>
+        <v>111483462</v>
       </c>
       <c r="B16" t="n">
-        <v>73681</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2501,41 +2508,54 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6439</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>S om järnvägen - 8, Vg</t>
+          <t>S om järnvägen - 16, Vg</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>431947.1499479365</v>
+        <v>431654.0242198514</v>
       </c>
       <c r="R16" t="n">
-        <v>6419623.056550305</v>
+        <v>6419791.70470859</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2589,26 +2609,6 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2625,7 +2625,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111491635</v>
+        <v>111491187</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2677,14 +2677,14 @@
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>S om järnvägen - 21, Vg</t>
+          <t>S om järnvägen - 18, Vg</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>431859.6228004749</v>
+        <v>431829.514510141</v>
       </c>
       <c r="R17" t="n">
-        <v>6419672.898494411</v>
+        <v>6419749.394753682</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2754,10 +2754,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111483300</v>
+        <v>111483107</v>
       </c>
       <c r="B18" t="n">
-        <v>73689</v>
+        <v>73681</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2766,25 +2766,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>308</v>
+        <v>6439</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2793,14 +2793,14 @@
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>S om järnvägen - 12, Vg</t>
+          <t>S om järnvägen - 8, Vg</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>431888.091041417</v>
+        <v>431947.1499479365</v>
       </c>
       <c r="R18" t="n">
-        <v>6419625.122914318</v>
+        <v>6419623.056550305</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>

--- a/artfynd/A 13663-2023.xlsx
+++ b/artfynd/A 13663-2023.xlsx
@@ -1059,7 +1059,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111482955</v>
+        <v>111482936</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1111,14 +1111,14 @@
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>S om järnvägen - 5, Vg</t>
+          <t>S om järnvägen - 4, Vg</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>432064.1298546481</v>
+        <v>432073.5656663703</v>
       </c>
       <c r="R5" t="n">
-        <v>6419677.395781181</v>
+        <v>6419668.734013095</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111482936</v>
+        <v>111482980</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1240,14 +1240,14 @@
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>S om järnvägen - 4, Vg</t>
+          <t>S om järnvägen - 6, Vg</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>432073.5656663703</v>
+        <v>432048.2263952638</v>
       </c>
       <c r="R6" t="n">
-        <v>6419668.734013095</v>
+        <v>6419681.385014677</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111482980</v>
+        <v>111482955</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1369,14 +1369,14 @@
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>S om järnvägen - 6, Vg</t>
+          <t>S om järnvägen - 5, Vg</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>432048.2263952638</v>
+        <v>432064.1298546481</v>
       </c>
       <c r="R7" t="n">
-        <v>6419681.385014677</v>
+        <v>6419677.395781181</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111483037</v>
+        <v>111483140</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>73683</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1458,54 +1458,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>306</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>(Ach.) Müll.Arg.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>S om järnvägen - 7, Vg</t>
+          <t>S om järnvägen - 9, Vg</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>432060.6482816387</v>
+        <v>431942.9372677525</v>
       </c>
       <c r="R8" t="n">
-        <v>6419660.45125766</v>
+        <v>6419625.784949708</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1559,6 +1546,26 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1575,7 +1582,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111483381</v>
+        <v>111483105</v>
       </c>
       <c r="B9" t="n">
         <v>73689</v>
@@ -1614,14 +1621,14 @@
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>S om järnvägen - 14, Vg</t>
+          <t>S om järnvägen - 8, Vg</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>431754.10213514</v>
+        <v>431947.1499479365</v>
       </c>
       <c r="R9" t="n">
-        <v>6419728.893211351</v>
+        <v>6419623.056550305</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1711,10 +1718,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111483105</v>
+        <v>111491635</v>
       </c>
       <c r="B10" t="n">
-        <v>73689</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1723,41 +1730,54 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>308</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>S om järnvägen - 8, Vg</t>
+          <t>S om järnvägen - 21, Vg</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>431947.1499479365</v>
+        <v>431859.6228004749</v>
       </c>
       <c r="R10" t="n">
-        <v>6419623.056550305</v>
+        <v>6419672.898494411</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1811,26 +1831,6 @@
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1847,10 +1847,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111491635</v>
+        <v>111483381</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>73689</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1859,54 +1859,41 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>308</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>S om järnvägen - 21, Vg</t>
+          <t>S om järnvägen - 14, Vg</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>431859.6228004749</v>
+        <v>431754.10213514</v>
       </c>
       <c r="R11" t="n">
-        <v>6419672.898494411</v>
+        <v>6419728.893211351</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1960,6 +1947,26 @@
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -2105,7 +2112,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111483437</v>
+        <v>111483462</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -2140,7 +2147,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2157,14 +2164,14 @@
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>S om järnvägen - 15, Vg</t>
+          <t>S om järnvägen - 16, Vg</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>431797.479853621</v>
+        <v>431654.0242198514</v>
       </c>
       <c r="R13" t="n">
-        <v>6419681.394993878</v>
+        <v>6419791.70470859</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2234,10 +2241,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111483197</v>
+        <v>111491187</v>
       </c>
       <c r="B14" t="n">
-        <v>73689</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2246,41 +2253,54 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>308</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>S om järnvägen - 11, Vg</t>
+          <t>S om järnvägen - 18, Vg</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>431937.082796899</v>
+        <v>431829.514510141</v>
       </c>
       <c r="R14" t="n">
-        <v>6419625.884406033</v>
+        <v>6419749.394753682</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2334,16 +2354,6 @@
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2360,7 +2370,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111483300</v>
+        <v>111483197</v>
       </c>
       <c r="B15" t="n">
         <v>73689</v>
@@ -2399,14 +2409,14 @@
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>S om järnvägen - 12, Vg</t>
+          <t>S om järnvägen - 11, Vg</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>431888.091041417</v>
+        <v>431937.082796899</v>
       </c>
       <c r="R15" t="n">
-        <v>6419625.122914318</v>
+        <v>6419625.884406033</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2461,16 +2471,6 @@
       <c r="AG15" t="b">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
       <c r="AM15" t="inlineStr">
         <is>
           <t>Stående död trädstam/högstubbe</t>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
+          <t>Standing dead tree/snags</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2496,10 +2496,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111483462</v>
+        <v>111483107</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>73681</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2508,54 +2508,41 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>6439</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>(Ach.) Tibell</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>S om järnvägen - 16, Vg</t>
+          <t>S om järnvägen - 8, Vg</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>431654.0242198514</v>
+        <v>431947.1499479365</v>
       </c>
       <c r="R16" t="n">
-        <v>6419791.70470859</v>
+        <v>6419623.056550305</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2609,6 +2596,26 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2625,7 +2632,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111491187</v>
+        <v>111483037</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2677,14 +2684,14 @@
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>S om järnvägen - 18, Vg</t>
+          <t>S om järnvägen - 7, Vg</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>431829.514510141</v>
+        <v>432060.6482816387</v>
       </c>
       <c r="R17" t="n">
-        <v>6419749.394753682</v>
+        <v>6419660.45125766</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2754,10 +2761,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111483107</v>
+        <v>111483437</v>
       </c>
       <c r="B18" t="n">
-        <v>73681</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2766,41 +2773,54 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6439</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>S om järnvägen - 8, Vg</t>
+          <t>S om järnvägen - 15, Vg</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>431947.1499479365</v>
+        <v>431797.479853621</v>
       </c>
       <c r="R18" t="n">
-        <v>6419623.056550305</v>
+        <v>6419681.394993878</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2854,26 +2874,6 @@
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2890,10 +2890,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111483140</v>
+        <v>111483300</v>
       </c>
       <c r="B19" t="n">
-        <v>73683</v>
+        <v>73689</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2902,25 +2902,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2929,14 +2929,14 @@
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>S om järnvägen - 9, Vg</t>
+          <t>S om järnvägen - 12, Vg</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>431942.9372677525</v>
+        <v>431888.091041417</v>
       </c>
       <c r="R19" t="n">
-        <v>6419625.784949708</v>
+        <v>6419625.122914318</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111661840</v>
+        <v>111661831</v>
       </c>
       <c r="B20" t="n">
-        <v>89793</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3038,41 +3038,38 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4217</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Stråkens strandskogar, Vg</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>431768.994999051</v>
+        <v>432080.3854477856</v>
       </c>
       <c r="R20" t="n">
-        <v>6419728.1081824</v>
+        <v>6419662.773410858</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3123,24 +3120,8 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -3269,7 +3250,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111661831</v>
+        <v>111661838</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3309,10 +3290,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>432080.3854477856</v>
+        <v>431799.2483237319</v>
       </c>
       <c r="R22" t="n">
-        <v>6419662.773410858</v>
+        <v>6419691.460736625</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3381,10 +3362,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111661838</v>
+        <v>111661840</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>89793</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3393,38 +3374,41 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>4217</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Stråkens strandskogar, Vg</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>431799.2483237319</v>
+        <v>431768.994999051</v>
       </c>
       <c r="R23" t="n">
-        <v>6419691.460736625</v>
+        <v>6419728.1081824</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3475,8 +3459,24 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">

--- a/artfynd/A 13663-2023.xlsx
+++ b/artfynd/A 13663-2023.xlsx
@@ -3026,7 +3026,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111661831</v>
+        <v>111661832</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -3066,10 +3066,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>432080.3854477856</v>
+        <v>432076.4609239195</v>
       </c>
       <c r="R20" t="n">
-        <v>6419662.773410858</v>
+        <v>6419682.500295377</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3138,10 +3138,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111661832</v>
+        <v>111661840</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>89793</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3150,38 +3150,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>4217</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Stråkens strandskogar, Vg</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>432076.4609239195</v>
+        <v>431768.994999051</v>
       </c>
       <c r="R21" t="n">
-        <v>6419682.500295377</v>
+        <v>6419728.1081824</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3232,8 +3235,24 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3250,7 +3269,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111661838</v>
+        <v>111661831</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3290,10 +3309,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>431799.2483237319</v>
+        <v>432080.3854477856</v>
       </c>
       <c r="R22" t="n">
-        <v>6419691.460736625</v>
+        <v>6419662.773410858</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3362,10 +3381,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111661840</v>
+        <v>111661838</v>
       </c>
       <c r="B23" t="n">
-        <v>89793</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3374,41 +3393,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4217</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Stråkens strandskogar, Vg</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>431768.994999051</v>
+        <v>431799.2483237319</v>
       </c>
       <c r="R23" t="n">
-        <v>6419728.1081824</v>
+        <v>6419691.460736625</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3459,24 +3475,8 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">

--- a/artfynd/A 13663-2023.xlsx
+++ b/artfynd/A 13663-2023.xlsx
@@ -3138,10 +3138,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111661840</v>
+        <v>111661831</v>
       </c>
       <c r="B21" t="n">
-        <v>89793</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3150,41 +3150,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4217</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Stråkens strandskogar, Vg</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>431768.994999051</v>
+        <v>432080.3854477856</v>
       </c>
       <c r="R21" t="n">
-        <v>6419728.1081824</v>
+        <v>6419662.773410858</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3235,24 +3232,8 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3269,10 +3250,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111661831</v>
+        <v>111661840</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>89793</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3281,38 +3262,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>4217</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Stråkens strandskogar, Vg</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>432080.3854477856</v>
+        <v>431768.994999051</v>
       </c>
       <c r="R22" t="n">
-        <v>6419662.773410858</v>
+        <v>6419728.1081824</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3363,8 +3347,24 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">

--- a/artfynd/A 13663-2023.xlsx
+++ b/artfynd/A 13663-2023.xlsx
@@ -3026,10 +3026,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111661832</v>
+        <v>111661840</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>89793</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3038,38 +3038,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>4217</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Meruliopsis taxicola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pers.:Fr.) Bondartsev</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Stråkens strandskogar, Vg</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>432076.4609239195</v>
+        <v>431769</v>
       </c>
       <c r="R20" t="n">
-        <v>6419682.500295377</v>
+        <v>6419728</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3099,29 +3102,35 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -3178,10 +3187,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>432080.3854477856</v>
+        <v>432080</v>
       </c>
       <c r="R21" t="n">
-        <v>6419662.773410858</v>
+        <v>6419663</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3211,19 +3220,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3250,10 +3249,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111661840</v>
+        <v>111661838</v>
       </c>
       <c r="B22" t="n">
-        <v>89793</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3262,41 +3261,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4217</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Meruliopsis taxicola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Bondartsev</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Stråkens strandskogar, Vg</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>431768.994999051</v>
+        <v>431799</v>
       </c>
       <c r="R22" t="n">
-        <v>6419728.1081824</v>
+        <v>6419691</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3326,45 +3322,19 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3381,7 +3351,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111661838</v>
+        <v>111661832</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3421,10 +3391,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>431799.2483237319</v>
+        <v>432076</v>
       </c>
       <c r="R23" t="n">
-        <v>6419691.460736625</v>
+        <v>6419683</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3454,19 +3424,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
